--- a/report/No3_KJBM050_テスト結果.xlsx
+++ b/report/No3_KJBM050_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD9D28-565A-48C7-A3EC-6C4C14C76AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB986FF0-26F2-45D9-AF09-E0D84962D700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>・アウトプットファイル1としてKJBM050out2.txt</t>
   </si>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t xml:space="preserve">スペース４4個                                            </t>
+  </si>
+  <si>
+    <t>OTF2-FILEオープンに失敗しました</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2316,15 +2320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2339,7 +2343,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="11477625"/>
+          <a:off x="2085975" y="11382375"/>
           <a:ext cx="0" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3738,7 +3742,7 @@
   <dimension ref="B2:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3786,7 +3790,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4162,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB5242-C841-4834-9E3F-D99307827CFE}">
   <dimension ref="B2:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4250,7 +4254,7 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
@@ -4266,7 +4270,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4412,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE03286A-2ACD-4443-8E1D-6C3016EEBE9E}">
   <dimension ref="B2:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4521,21 +4526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -4693,24 +4683,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4726,4 +4714,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report/No3_KJBM050_テスト結果.xlsx
+++ b/report/No3_KJBM050_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB986FF0-26F2-45D9-AF09-E0D84962D700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8F00A-4BDA-4631-8070-D419CBE64D36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,10 +275,6 @@
     <t>OTF-FILEオープンに失敗しました</t>
   </si>
   <si>
-    <t>11.書き込み権限がないアウトプットファイルをOTF1環境変数に指定して./KJBM050 | iconv -fcp932で実行する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>12.書き込み権限がないアウトプットファイルをOTF2環境変数に指定して./KJBM050 | iconv -fcp932で実行する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>OTF2-FILEオープンに失敗しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.書き込み権限がないアウトプットファイルをOTF環境変数に指定して./KJBM050 | iconv -fcp932で実行する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
@@ -4012,12 +4012,12 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
@@ -4167,7 +4167,7 @@
   <dimension ref="B2:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
@@ -4239,7 +4239,7 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
@@ -4254,7 +4254,7 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
@@ -4287,12 +4287,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -4307,17 +4307,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
@@ -4332,7 +4332,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
@@ -4342,7 +4342,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
@@ -4353,12 +4353,12 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
@@ -4425,17 +4425,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
@@ -4445,7 +4445,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -4465,12 +4465,12 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
@@ -4505,7 +4505,7 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">

--- a/report/No3_KJBM050_テスト結果.xlsx
+++ b/report/No3_KJBM050_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8F00A-4BDA-4631-8070-D419CBE64D36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3510B2-5145-4E93-AD20-9C0E6B68ACA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,11 +346,11 @@
     <t xml:space="preserve">スペース４4個                                            </t>
   </si>
   <si>
-    <t>OTF2-FILEオープンに失敗しました</t>
+    <t>11.書き込み権限がないアウトプットファイルをOTF環境変数に指定して./KJBM050 | iconv -fcp932で実行する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11.書き込み権限がないアウトプットファイルをOTF環境変数に指定して./KJBM050 | iconv -fcp932で実行する</t>
+    <t>OTF-FILE2オープンに失敗しました</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1620,16 +1620,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>362766</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>47799</xdr:rowOff>
+      <xdr:colOff>381819</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>96</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E62C41-7C5D-41E4-A250-25A8D6EC7DB9}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888ADE93-D2B0-489F-8573-1BC7707DC68F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="11830050"/>
-          <a:ext cx="5849166" cy="1247949"/>
+          <a:ext cx="5868219" cy="685896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,21 +1665,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>353240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28746</xdr:rowOff>
+      <xdr:colOff>343714</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DF3FFF-1027-483E-859C-DA6881CB6CCE}"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5581AED5-9E9D-46B9-8C49-914A1FB91854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,15 +1688,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5829300"/>
-          <a:ext cx="5839640" cy="1228896"/>
+          <a:off x="685800" y="10115550"/>
+          <a:ext cx="5830114" cy="1066949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1709,21 +1715,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>343714</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19220</xdr:rowOff>
+      <xdr:colOff>353240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EABA74-DA58-43A0-B19E-DD532480F06C}"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DF3FFF-1027-483E-859C-DA6881CB6CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1738,51 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5829300"/>
+          <a:ext cx="5839640" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>343714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EABA74-DA58-43A0-B19E-DD532480F06C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1948,7 +1998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2066,7 +2116,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2377,14 +2427,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2399,8 +2449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="12592050"/>
-          <a:ext cx="2543175" cy="485775"/>
+          <a:off x="666750" y="12020550"/>
+          <a:ext cx="2505075" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2445,14 +2495,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2467,7 +2517,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="12639675"/>
+          <a:off x="4419600" y="10744200"/>
           <a:ext cx="2143125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2500,14 +2550,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2522,7 +2572,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="12449175"/>
+          <a:off x="695325" y="10544175"/>
           <a:ext cx="4676775" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2549,56 +2599,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>362766</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1657CD32-8AAA-4611-B855-04A1AEBE66CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="10115550"/>
-          <a:ext cx="5849166" cy="1247949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4166,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB5242-C841-4834-9E3F-D99307827CFE}">
   <dimension ref="B2:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
@@ -4254,7 +4254,7 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">

--- a/report/No3_KJBM050_テスト結果.xlsx
+++ b/report/No3_KJBM050_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3510B2-5145-4E93-AD20-9C0E6B68ACA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C23FB-12A5-4237-B0C5-96912ACFDBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,16 +1620,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381819</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>96</xdr:rowOff>
+      <xdr:colOff>372293</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888ADE93-D2B0-489F-8573-1BC7707DC68F}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCE0FC7-A7A7-4FF6-AE68-9A90D4390F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="11830050"/>
-          <a:ext cx="5868219" cy="685896"/>
+          <a:ext cx="5858693" cy="1086002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,16 +1670,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>343714</xdr:colOff>
+      <xdr:colOff>372293</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>38249</xdr:rowOff>
+      <xdr:rowOff>57302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5581AED5-9E9D-46B9-8C49-914A1FB91854}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFD26C7-4587-4925-A69F-F423C59A8038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1688,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1702,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="10115550"/>
-          <a:ext cx="5830114" cy="1066949"/>
+          <a:ext cx="5858693" cy="1086002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1782,7 +1782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1998,7 +1998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2116,7 +2116,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2426,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2449,7 +2449,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="12020550"/>
+          <a:off x="647700" y="12430125"/>
           <a:ext cx="2505075" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4166,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB5242-C841-4834-9E3F-D99307827CFE}">
   <dimension ref="B2:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
